--- a/데이터베이스 테이블/사직직원 테이블(완)/Resignation Table.xlsx
+++ b/데이터베이스 테이블/사직직원 테이블(완)/Resignation Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\사직직원 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GGG\Desktop\1차\project1-prototype\데이터베이스 테이블\사직직원 테이블(완)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B3DE2-F30C-415F-9C32-8DF72C579578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2611D6-81A4-4099-8679-67672FD16B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="960" windowWidth="15525" windowHeight="13680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="1845" windowWidth="19080" windowHeight="13680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,11 +42,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기업ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원ID</t>
+    <t>제약 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -54,11 +86,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>company_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_id</t>
+    <t>employment_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -66,15 +94,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>근속년수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>25 Byte</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
+    <t>30 Byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Byte</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -82,15 +126,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resignation Table</t>
+    <t>근무부서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resignation Table (퇴사자 테이블)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +182,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,24 +191,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -214,54 +276,29 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -271,12 +308,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -286,145 +319,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -434,75 +329,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,107 +682,205 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="1"/>
+    <col min="1" max="4" width="15.625" style="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="23" t="s">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
